--- a/Location_based_analysis/OnOff_Ttest/lps.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/lps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224320AF-DBF4-41D6-9C9C-339E533D64F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18306D90-9B77-4115-B6EF-A97E6A3CB18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Location_based_analysis/OnOff_Ttest/lps.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/lps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18306D90-9B77-4115-B6EF-A97E6A3CB18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3587D37-4D9E-46D5-9DE3-446DF02B8744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ON</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>14-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -219,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -248,6 +265,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,10 +669,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44411</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.51</v>
+        <v>44410</v>
+      </c>
+      <c r="B3">
+        <v>4.21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="2">
@@ -686,10 +711,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B4" s="3">
-        <v>4.96</v>
+        <v>1.51</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2">
@@ -728,10 +753,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B5" s="3">
-        <v>50.89</v>
+        <v>4.96</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2">
@@ -773,10 +798,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44415</v>
+        <v>44413</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>50.89</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2">
@@ -818,10 +843,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B7" s="3">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="2">
@@ -835,43 +860,43 @@
       <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="14">
         <v>135.89999999999901</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="14">
         <v>95.6</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="14">
         <v>133.1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="14">
         <v>117.899999999999</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="14">
         <v>90.499999999999901</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="14">
         <v>86.899999999999906</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="14">
         <v>100.6</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="14">
         <v>112.9</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="14">
         <v>128.5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="14">
         <v>51.1</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="14">
         <v>65.5</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="14">
         <v>14.4</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="14">
         <v>74.400000000000006</v>
       </c>
       <c r="W7">
@@ -881,10 +906,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="2">
@@ -941,13 +966,17 @@
         <f t="shared" si="0"/>
         <v>133.84166666666647</v>
       </c>
+      <c r="X8">
+        <f>AVERAGE(W2:W8)</f>
+        <v>59.13309523809518</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B9" s="3">
-        <v>38.409999999999997</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2">
@@ -961,43 +990,43 @@
       <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="21">
         <v>303.79999999999899</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="21">
         <v>243.69999999999899</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="21">
         <v>138.29999999999899</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="21">
         <v>230.79999999999899</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="21">
         <v>72.299999999999898</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="21">
         <v>67.400000000000006</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="21">
         <v>81.199999999999903</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="21">
         <v>76.3</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="21">
         <v>118.799999999999</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="21">
         <v>131.29999999999899</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="21">
         <v>92.399999999999906</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="21">
         <v>146.1</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="21">
         <v>68</v>
       </c>
       <c r="W9">
@@ -1007,10 +1036,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B10" s="3">
-        <v>10.3</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="2">
@@ -1024,43 +1053,43 @@
       <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="21">
         <v>110.899999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="21">
         <v>149.79999999999899</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="21">
         <v>92.599999999999795</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="21">
         <v>46.9</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="21">
         <v>66.3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="21">
         <v>127.19999999999899</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="21">
         <v>220.29999999999899</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="21">
         <v>144.19999999999899</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="21">
         <v>87.4</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="21">
         <v>115.099999999999</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="21">
         <v>90.1</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="21">
         <v>56.5</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="21">
         <v>165.49999999999901</v>
       </c>
       <c r="W10">
@@ -1070,10 +1099,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B11" s="3">
-        <v>126.5</v>
+        <v>10.3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="2">
@@ -1087,27 +1116,33 @@
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="21">
         <v>59.5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="21">
         <v>73.099999999999994</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="21">
         <v>22.4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="21">
         <v>90.999999999999901</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="21">
         <v>62.2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="21">
         <v>43.4</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="21">
         <v>54</v>
       </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11">
         <f t="shared" si="0"/>
         <v>57.683333333333309</v>
@@ -1115,10 +1150,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B12" s="3">
-        <v>0.2</v>
+        <v>126.5</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="2">
@@ -1132,38 +1167,48 @@
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="21">
         <v>14.999999999999901</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="21">
         <v>33.299999999999997</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="21">
         <v>47.1</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="21">
         <v>2.8</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="21">
         <v>5.6999999999999904</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="21">
         <v>31.7</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="21">
         <v>23.2</v>
       </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
       <c r="W12">
         <f t="shared" si="0"/>
         <v>23.966666666666665</v>
       </c>
+      <c r="X12">
+        <f>AVERAGE(W9:W12)</f>
+        <v>79.339583333333081</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B13" s="3">
-        <v>103.97</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2">
@@ -1177,19 +1222,27 @@
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21">
         <v>0.79999999999999905</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="21">
         <v>1.4</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="21">
         <v>12.999999999999901</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="21">
         <v>2.1</v>
       </c>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13">
         <f>AVERAGE(K13:V13)</f>
         <v>4.3249999999999753</v>
@@ -1197,10 +1250,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44426</v>
+        <v>44422</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>103.97</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="2">
@@ -1228,12 +1281,19 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B15" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E14)</f>
+        <v>234.24</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1262,16 +1322,20 @@
         <v>269.69999999999902</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f>SUM(P9:P12)</f>
         <v>378.69999999999885</v>
+      </c>
+      <c r="W15">
+        <f>SUM(W9:W12)</f>
+        <v>317.35833333333233</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B16" s="3">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -1339,18 +1403,18 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B17" s="3">
-        <v>6.51</v>
+        <v>1.6</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <f>(B56-E16)/E16</f>
-        <v>0.14838192081657897</v>
+        <f>(B58-E16)/E16</f>
+        <v>0.13144242688726981</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1387,21 +1451,25 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>(J15-W15)/W15</f>
+        <v>0.54147519890764728</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B18" s="3">
-        <v>9.31</v>
+        <v>6.51</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18">
-        <f>_xlfn.T.TEST(B2:B54,E2:E14,1,2)</f>
-        <v>0.40883861147000222</v>
+        <f>_xlfn.T.TEST(B2:B55,E2:E14,1,2)</f>
+        <v>0.41843646548805058</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>19</v>
@@ -1455,13 +1523,17 @@
         <f>_xlfn.T.TEST(J2:J13,V2:V13,1,2)</f>
         <v>0.44271274489253598</v>
       </c>
+      <c r="W18">
+        <f>_xlfn.T.TEST(J9:J12,W9:W12,1,2)</f>
+        <v>0.27468493171696395</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B19" s="3">
-        <v>174.04</v>
+        <v>9.31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="I19" s="2"/>
@@ -1481,10 +1553,10 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B20" s="3">
-        <v>0.2</v>
+        <v>174.04</v>
       </c>
       <c r="C20" s="5"/>
       <c r="I20" s="2"/>
@@ -1504,10 +1576,10 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B21" s="3">
-        <v>8.91</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="5"/>
       <c r="I21" s="12" t="s">
@@ -1552,10 +1624,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B22" s="3">
-        <v>0.5</v>
+        <v>8.91</v>
       </c>
       <c r="C22" s="5"/>
       <c r="I22" s="14">
@@ -1605,10 +1677,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B23" s="3">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="5"/>
       <c r="I23" s="14">
@@ -1646,10 +1718,10 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C24" s="5"/>
       <c r="I24" s="14">
@@ -1685,10 +1757,10 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B25" s="3">
-        <v>67.47</v>
+        <v>0</v>
       </c>
       <c r="C25" s="5"/>
       <c r="I25" s="14">
@@ -1724,10 +1796,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B26" s="3">
-        <v>115.86</v>
+        <v>67.47</v>
       </c>
       <c r="C26" s="5"/>
       <c r="I26" s="14">
@@ -1752,10 +1824,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44441</v>
+        <v>44438</v>
       </c>
       <c r="B27" s="3">
-        <v>0.1</v>
+        <v>115.86</v>
       </c>
       <c r="C27" s="5"/>
       <c r="I27" s="14">
@@ -1780,10 +1852,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B28" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C28" s="5"/>
       <c r="I28" s="14">
@@ -1805,14 +1877,20 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="23">
+        <f>AVERAGE(I22:I28)</f>
+        <v>64.957142857142571</v>
+      </c>
+      <c r="J29" s="5">
+        <f>AVERAGE(J22:J25)</f>
+        <v>122.29999999999947</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -1828,14 +1906,17 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B30" s="3">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="24">
+        <f>(J29-I29)/I29</f>
+        <v>0.8827798548493514</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -1851,10 +1932,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C31" s="5"/>
       <c r="I31" s="2"/>
@@ -1874,7 +1955,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1897,7 +1978,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -1920,10 +2001,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B34" s="3">
-        <v>58.96</v>
+        <v>0</v>
       </c>
       <c r="C34" s="5"/>
       <c r="I34" s="2"/>
@@ -1943,10 +2024,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B35" s="3">
-        <v>0.9</v>
+        <v>58.96</v>
       </c>
       <c r="C35" s="5"/>
       <c r="I35" s="2"/>
@@ -1966,10 +2047,10 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C36" s="5"/>
       <c r="I36" s="2"/>
@@ -1989,10 +2070,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44452</v>
+        <v>44450</v>
       </c>
       <c r="B37" s="3">
-        <v>61.44</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5"/>
       <c r="I37" s="2"/>
@@ -2012,10 +2093,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B38" s="3">
-        <v>0.6</v>
+        <v>61.44</v>
       </c>
       <c r="C38" s="5"/>
       <c r="I38" s="2"/>
@@ -2035,10 +2116,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B39" s="3">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="C39" s="5"/>
       <c r="I39" s="2"/>
@@ -2058,10 +2139,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B40" s="3">
-        <v>21.12</v>
+        <v>10.7</v>
       </c>
       <c r="C40" s="5"/>
       <c r="I40" s="2"/>
@@ -2081,10 +2162,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B41" s="3">
-        <v>0.8</v>
+        <v>21.12</v>
       </c>
       <c r="C41" s="5"/>
       <c r="I41" s="2"/>
@@ -2104,10 +2185,10 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C42" s="5"/>
       <c r="I42" s="2"/>
@@ -2127,7 +2208,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -2150,10 +2231,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B44" s="3">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="C44" s="5"/>
       <c r="I44" s="2"/>
@@ -2173,10 +2254,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B45" s="3">
-        <v>50.73</v>
+        <v>6.01</v>
       </c>
       <c r="C45" s="5"/>
       <c r="I45" s="2"/>
@@ -2196,10 +2277,10 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B46" s="3">
-        <v>1.9</v>
+        <v>50.73</v>
       </c>
       <c r="C46" s="5"/>
       <c r="I46" s="2"/>
@@ -2219,10 +2300,10 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B47" s="3">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="C47" s="5"/>
       <c r="I47" s="2"/>
@@ -2242,10 +2323,10 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C48" s="5"/>
       <c r="I48" s="2"/>
@@ -2265,10 +2346,10 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B49" s="3">
-        <v>60.19</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5"/>
       <c r="I49" s="2"/>
@@ -2288,10 +2369,10 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B50" s="3">
-        <v>5.62</v>
+        <v>60.19</v>
       </c>
       <c r="C50" s="5"/>
       <c r="I50" s="2"/>
@@ -2311,10 +2392,10 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>5.62</v>
       </c>
       <c r="C51" s="5"/>
       <c r="I51" s="2"/>
@@ -2334,10 +2415,10 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B52" s="3">
-        <v>11.93</v>
+        <v>3</v>
       </c>
       <c r="C52" s="5"/>
       <c r="I52" s="2"/>
@@ -2357,10 +2438,10 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B53" s="3">
-        <v>0.1</v>
+        <v>11.93</v>
       </c>
       <c r="C53" s="5"/>
       <c r="I53" s="2"/>
@@ -2380,10 +2461,10 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B54" s="3">
-        <v>56.74</v>
+        <v>0.1</v>
       </c>
       <c r="C54" s="5"/>
       <c r="I54" s="2"/>
@@ -2402,19 +2483,25 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B55" s="3">
+        <v>56.74</v>
+      </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <f>AVERAGE(B2:B54)</f>
-        <v>20.692075471698114</v>
-      </c>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <f>SUM(B2:B55)</f>
+        <v>1100.8900000000001</v>
+      </c>
       <c r="I57" s="6"/>
       <c r="L57" s="7"/>
       <c r="N57" s="7"/>
@@ -2428,6 +2515,13 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE(B2:B55)</f>
+        <v>20.386851851851855</v>
+      </c>
       <c r="I58" s="6"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>

--- a/Location_based_analysis/OnOff_Ttest/lps.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/lps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3587D37-4D9E-46D5-9DE3-446DF02B8744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A36A2-1D96-4A07-BBCD-7DE3FE093103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ON</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,27 @@
   <si>
     <t>sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_1-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_1-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <t>T-test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_8-11</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
 </sst>
 </file>
@@ -263,9 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +291,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,14 +588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="24"/>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
@@ -990,43 +1011,43 @@
       <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>303.79999999999899</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>243.69999999999899</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>138.29999999999899</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>230.79999999999899</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <v>72.299999999999898</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>67.400000000000006</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>81.199999999999903</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <v>76.3</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <v>118.799999999999</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>131.29999999999899</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="20">
         <v>92.399999999999906</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="20">
         <v>146.1</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="20">
         <v>68</v>
       </c>
       <c r="W9">
@@ -1053,43 +1074,43 @@
       <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>110.899999999999</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>149.79999999999899</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>92.599999999999795</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>46.9</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <v>66.3</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>127.19999999999899</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>220.29999999999899</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>144.19999999999899</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <v>87.4</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <v>115.099999999999</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="20">
         <v>90.1</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="20">
         <v>56.5</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="20">
         <v>165.49999999999901</v>
       </c>
       <c r="W10">
@@ -1116,33 +1137,33 @@
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>59.5</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>73.099999999999994</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>22.4</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>90.999999999999901</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <v>62.2</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>43.4</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>54</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11">
         <f t="shared" si="0"/>
         <v>57.683333333333309</v>
@@ -1167,33 +1188,33 @@
       <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>14.999999999999901</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>33.299999999999997</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>47.1</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>2.8</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <v>5.6999999999999904</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>31.7</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>23.2</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
       <c r="W12">
         <f t="shared" si="0"/>
         <v>23.966666666666665</v>
@@ -1222,27 +1243,27 @@
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
         <v>0.79999999999999905</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <v>1.4</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>12.999999999999901</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>2.1</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
       <c r="W13">
         <f>AVERAGE(K13:V13)</f>
         <v>4.3249999999999753</v>
@@ -1302,7 +1323,7 @@
         <v>489.19999999999789</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:P15" si="1">SUM(K9:K12)</f>
+        <f t="shared" ref="K15:O15" si="1">SUM(K9:K12)</f>
         <v>499.89999999999799</v>
       </c>
       <c r="L15">
@@ -1349,11 +1370,11 @@
         <v>18</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:V16" si="2">AVERAGE(J2:J13)</f>
+        <f>AVERAGE(J2:J13)</f>
         <v>85.809090909090528</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J16:V16" si="2">AVERAGE(K2:K13)</f>
         <v>90.827272727272529</v>
       </c>
       <c r="L16" s="5">
@@ -1883,7 +1904,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <f>AVERAGE(I22:I28)</f>
         <v>64.957142857142571</v>
       </c>
@@ -1913,7 +1934,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <f>(J29-I29)/I29</f>
         <v>0.8827798548493514</v>
       </c>
@@ -1942,12 +1963,22 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -1965,12 +1996,22 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="M32" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="N32" s="5">
+        <v>10.959999999999976</v>
+      </c>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="P32" s="14">
+        <v>303.79999999999899</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>167.9356607981324</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0.31340895495767157</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -1988,11 +2029,19 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="M33" s="14">
+        <v>21</v>
+      </c>
+      <c r="N33" s="5">
+        <v>18.039999999999974</v>
+      </c>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="P33" s="14">
+        <v>110.899999999999</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>100.69999999999921</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -2011,11 +2060,19 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="14">
+        <v>22.2</v>
+      </c>
+      <c r="N34" s="5">
+        <v>34.839999999999996</v>
+      </c>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="P34" s="14">
+        <v>59.5</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>54.759999999999991</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -2034,11 +2091,19 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="M35" s="14">
+        <v>21.6</v>
+      </c>
+      <c r="N35" s="5">
+        <v>61.35</v>
+      </c>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="P35" s="14">
+        <v>14.999999999999901</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>19.97999999999994</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -2057,8 +2122,12 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="M36" s="14">
+        <v>79</v>
+      </c>
+      <c r="N36" s="5">
+        <v>65.616666666666632</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -2080,8 +2149,12 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="M37" s="14">
+        <v>135.89999999999901</v>
+      </c>
+      <c r="N37" s="5">
+        <v>89.283333333333232</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -2103,8 +2176,12 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="M38" s="14">
+        <v>155.19999999999899</v>
+      </c>
+      <c r="N38" s="5">
+        <v>133.84166666666647</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -2149,8 +2226,13 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="M40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="5">
+        <f>_xlfn.T.TEST(M32:M38,N32:N38,1,2)</f>
+        <v>0.4184534266628564</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
